--- a/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10102,7 +10103,6 @@
           <t>长信先利半年定期开放混合C</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
           <t>29.00</t>
@@ -10134,7 +10134,6 @@
           <t>招商财经大数据策略股票C</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
           <t>81.93</t>
@@ -10150,6 +10149,4546 @@
       </c>
       <c r="H185" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H119"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9920</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4191</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010854</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪深300基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9635</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6665</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0187</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8571</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安汇智精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7732</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7395</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5084</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4909</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4422</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4223</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4016</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001195</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银瑞信农业产业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3964</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>217002</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商安泰平衡混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>40.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3523</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3422</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002317</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商睿逸稳健配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3134</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2426</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1893</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>59.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>166802</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浙商沪深 300 指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1435</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1122</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010855</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇添富沪深300基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005039</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009102</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001547</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>兴业聚盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0863</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000585</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实对冲套利定期开放混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>55.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>33.39</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0767</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010636</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>财通安盈混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002923</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴业聚惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>003343</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>32.00</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010503</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商稳兴混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009649</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002660</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴业聚源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.21</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0568</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002668</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>兴业聚丰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0566</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009103</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏扬红利优选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003344</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010637</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>财通安盈混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>57.35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011408</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天弘益新混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>26.87</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000417</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>国联安新精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>27.67</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001628</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商体育文化休闲股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>72.86</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005040</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏扬景兴混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>30.48</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010504</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商稳兴混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>25.72</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>60.54</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>33.30</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>20.58</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011409</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>天弘益新混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006343</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009650</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>嘉实精选平衡混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>43.04</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>70.83</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006344</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14694,4 +14695,3362 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010854</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富沪深300基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6380</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6558</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5885</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5380</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4790</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4627</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>44.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4492</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4208</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4145</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3559</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2369</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003401</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债债券</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>35.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>32.52</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000121</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏永福混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004607</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信利尚一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.69</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>31.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1195</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>22.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010855</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富沪深300基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002545</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东方岳灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002166</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华夏永福混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>121010</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞源灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>65.60</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>34.12</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>68.80</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>22.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011438</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>161222</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国投瑞银瑞利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>69.32</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011408</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘益新混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>31.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25.65</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000845</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国投瑞银信息消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.40</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>28.82</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>50.64</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.73</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>50.92</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>61.40</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001791</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>24.49</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011439</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>红塔红土盛昌优选混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>58.50</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011409</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>天弘益新混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>31.84</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001792</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>大成绝对收益策略混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>23.04</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18053,4 +18054,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>87</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>118</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>184</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>69</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18062,7 +18063,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18073,17 +18074,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18093,14 +18114,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>87</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.73</v>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3953</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -18109,14 +18152,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>118</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.21</v>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>51.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1586</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -18125,14 +18190,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>184</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.55</v>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -18141,13 +18228,2241 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8784</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7704</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7496</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6920</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6401</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011405</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华稳健增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5778</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4833</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>31.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4413</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4408</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3420</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3304</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2186</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>30.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1698</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>24.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004100</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华安益增强混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010908</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0906</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0775</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010909</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>77.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>38.07</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0543</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001484</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>42.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.59</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>51.35</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>51.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010547</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时恒进6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>53.87</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010548</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时恒进6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>87</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>118</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>184</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.55</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>69</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20361,7 +20362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20372,17 +20373,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -20392,14 +20413,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>59</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.5</v>
+          <t>009570</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>114.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3540</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -20408,14 +20451,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>87</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10.73</v>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.6961</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -20424,14 +20489,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>118</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.21</v>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4572</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -20440,14 +20527,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>184</v>
-      </c>
-      <c r="D5" t="n">
-        <v>38.55</v>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1349</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -20456,13 +20565,3963 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2574</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2508</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商优质成长混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.57</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9826</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9447</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7953</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7263</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>65.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6221</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5976</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5450</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009571</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华匠心精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>60.50</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5283</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4575</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4416</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4401</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4010</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3433</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3366</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>64.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3088</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商景气精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2839</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>65.06</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2518</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.77</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2299</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012377</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1903</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1417</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1411</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014103</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.26</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>166802</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>浙商沪深 300 指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010834</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010781</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010923</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>永赢鑫欣混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>67.38</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>53.15</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>36.07</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010835</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国泰同益18个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005635</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012378</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>29.63</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>30.76</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001359</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>77.94</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010782</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>兴业聚申一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014104</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富安达成长价值一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001654</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国联安添鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>77.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010872</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>57.12</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011444</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>51.97</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001466</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001467</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华富永鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010873</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博时沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005636</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>博时量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>82.37</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011445</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>创金合信瑞裕混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>68.73</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>87</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>118</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>184</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.55</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>69</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -24404,7 +24405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24415,17 +24416,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -24435,14 +24456,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>105</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.87</v>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9278</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -24451,14 +24494,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>59</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.5</v>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9692</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -24467,14 +24532,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>87</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.73</v>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华长荣混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8804</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -24483,14 +24570,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>118</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.21</v>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5288</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -24499,14 +24608,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>184</v>
-      </c>
-      <c r="D6" t="n">
-        <v>38.55</v>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4496</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -24515,13 +24646,2459 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4264</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4247</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4236</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011791</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3558</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3216</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001623</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1180</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010589</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004131</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005706</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>兴业龙腾双益平衡混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>25.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0961</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>166802</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浙商沪深 300 指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014372</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>浙商沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>62.53</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>35.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.88</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>45.45</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国信价值智选混合型集合资产管理计划</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>42.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>安信合作创新主题沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010478</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>景顺长城泰祥回报混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>25.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005083</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011792</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>22.97</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>30.30</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002837</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>010590</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏扬景安一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>20.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014519</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时恒生港股通高股息率ETF联接A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>007939</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏网购精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004132</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国联安鑫发混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>54.55</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>69.57</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005082</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>诺德量化蓝筹增强混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>105</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>87</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>118</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>184</v>
+      </c>
+      <c r="D7" t="n">
+        <v>38.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>69</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.16</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
-        <v>9.82</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D3" t="n">
-        <v>26.87</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="D4" t="n">
-        <v>13.5</v>
+        <v>26.87</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
-        <v>10.73</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="D6" t="n">
-        <v>23.21</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D7" t="n">
-        <v>38.55</v>
+        <v>23.21</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>184</v>
+      </c>
+      <c r="D8" t="n">
+        <v>38.55</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>69</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.16</v>
       </c>
     </row>
@@ -600,6 +617,3176 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8423</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010341</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>招商产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6759</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000746</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商行业精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5986</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161706</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商优质成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0431</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华长荣混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>65.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7111</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009428</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5979</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012835</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商景气精选股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4665</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.11</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4459</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3097</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011017</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景明一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009601</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2758</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011791</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013293</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长城健康消费混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2071</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012836</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商景气精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1882</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010688</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1863</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010342</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011521</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008261</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商研究优选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1255</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009429</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬景沣六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012877</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富荣福耀混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>61.19</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>32.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0852</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009130</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011267</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛鑫盛稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011265</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛安泰一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>166802</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012377</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008262</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商研究优选股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009602</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商科技动力3个月滚动持有股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011522</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏扬景源一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23.83</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011268</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长盛鑫盛稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>25.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010689</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商瑞德一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009131</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬景恒六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>安信企业价值优选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014372</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>浙商沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005232</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001284</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001283</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>红塔红土盛金新动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011792</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>招商瑞盈9个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>32.19</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005231</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>红塔红土盛通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>53.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>63.44</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>012378</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>30.99</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>44.26</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>65.59</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011266</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长盛安泰一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012876</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富荣福耀混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>61.19</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3159,7 +6346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7201,7 +10388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9499,7 +12686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12857,7 +16044,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17397,7 +20584,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24431,7 +27618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601939-建设银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>13.34</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>9.82</v>
+        <v>13.34</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D4" t="n">
-        <v>26.87</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="D5" t="n">
-        <v>13.5</v>
+        <v>26.87</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>10.73</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="D7" t="n">
-        <v>23.21</v>
+        <v>10.73</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="D8" t="n">
-        <v>38.55</v>
+        <v>23.21</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,2706 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>184</v>
+      </c>
+      <c r="D9" t="n">
+        <v>38.55</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>69</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000762</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>210.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2713</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3847</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4701</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4665</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4185</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006449</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商汇金量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3534</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008140</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富绝对收益策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2982</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2507</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002330</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>兴业聚宝灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2383</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2354</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000398</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2207</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000963</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>兴业多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1744</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001272</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴业聚利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007385</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰保兴安盈三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>27.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002498</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001309</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方红睿逸定期开放混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001141</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001142</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利创盈灵活配置混合 - B</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005517</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009124</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>36.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0922</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001418</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002273</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利创益灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000835</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华润元大富时中国A50指数A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>350002</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天治低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000058</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安安泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>31.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001399</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0664</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009753</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004694</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004225</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国寿安保稳诚混合 A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001400</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信鑫安得利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>27.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.73</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004258</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>673020</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西部利得成长精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>73.84</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>56.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>121001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国投瑞银融华债券</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004226</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国寿安保稳诚混合 C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>56.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005518</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>26.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>39.29</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009754</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧美益稳健两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>004748</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008221</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>兴业聚鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006343</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004259</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国寿安保稳嘉混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>28.50</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010573</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华润元大富时中国A50指数C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>74.93</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>39.29</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006344</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中金MSCI中国A股国际低波动指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009125</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华泰保兴科荣混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3310,2340 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7636</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011855</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华长荣混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5959</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中泰红利价值一年持有混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5150</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014048</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华鑫盛灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4807</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012370</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华鑫利一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4545</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014771</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中泰红利优选一年持有混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3558</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009240</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康蓝筹优势一年持有期股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1867</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大成产业升级股票（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>167508</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信价值发现两年定期开放混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1284</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011265</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长盛安泰一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003345</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011267</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长盛鑫盛稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012377</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011849</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得量化价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512390</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>平安MSCI中国A股低波动ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>166802</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>浙商沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002849</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金信智能中国2025灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013611</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515300</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实沪深300红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>930602</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国信价值智选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007687</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>54.28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011268</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛鑫盛稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004393</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信企业价值优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001903</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>31.94</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009747</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009766</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007506</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014372</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浙商沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004481</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>850088</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007505</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏中证AH经济蓝筹股票指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003346</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>安信新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>850006</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>400013</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方成长收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>54.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001904</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信欣鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>31.94</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>850004</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012302</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浦银安盛鑫福混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009263</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012303</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛鑫福混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>850688</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009767</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信平稳双利3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>28.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>012378</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛安睿一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>28.01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012673</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国新国证融兴6个月定开混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010841</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>852200</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>海通策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011266</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛安泰一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>27.68</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013612</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银民瑞一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27.01</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003125</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003028</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>安信新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>32.48</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>850099</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>850699</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>海通红利优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>852289</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>海通策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>84.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012674</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国新国证融兴6个月定开混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012798</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝第三产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3786,7 +8813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6346,7 +11373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10388,7 +15415,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12686,7 +17713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16044,7 +21071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20584,7 +25611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27616,2680 +32643,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H70"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000762</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇添富绝对收益策略定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>210.31</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>61.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.2713</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519133</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>海富通改革驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>55.61</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.3847</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009911</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4701</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005392</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>68.57</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.4665</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519003</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>海富通收益增长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>17.81</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4185</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006449</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浙商汇金量化精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.90</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>86.93</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3534</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008140</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富绝对收益策略定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>27.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>61.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2982</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>320022</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>诺安研究精选股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>12.74</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.49</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2663</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000893</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银创新动力股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.35</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2507</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002330</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>兴业聚宝灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>86.92</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2383</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>167508</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安信价值发现两年定期开放混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>81.93</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2354</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000398</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华富灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>29.81</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2207</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000963</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>兴业多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2025</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000646</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1744</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>001903</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>光大保德信欣鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>27.09</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1720</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>161611</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>融通内需驱动混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1273</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001272</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>兴业聚利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1259</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>007385</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华泰保兴安盈三个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>27.22</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1224</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002498</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>兴业聚鑫灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>12.15</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>21.15</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1118</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001309</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>东方红睿逸定期开放混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>12.19</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>21.87</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1073</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001141</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>26.05</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1002</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>001142</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>泰达宏利创盈灵活配置混合 - B</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>26.05</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1002</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005517</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>富国新趋势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>26.53</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0992</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004836</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>中融鑫价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>87.74</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0982</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>003029</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>安信新优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0981</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>009124</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华泰保兴科荣混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>26.90</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0943</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>003028</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>安信新优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>36.61</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0941</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009500</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>62.26</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0922</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001418</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0882</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002273</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>泰达宏利创益灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>25.08</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0882</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>000835</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华润元大富时中国A50指数A</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0781</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>004837</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>中融鑫价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>87.74</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0776</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>350002</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>天治低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>75.21</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>3.56</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0726</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>000058</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>国联安安泰灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>6.93</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>31.13</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0721</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001399</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>安信鑫安得利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>5.44</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>23.45</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0691</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>512390</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>平安MSCI中国A股低波动ETF</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>98.08</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0664</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>009753</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>中欧美益稳健两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>28.84</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0630</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>004694</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>天弘策略精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>30.41</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0626</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>004225</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>国寿安保稳诚混合 A</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>6.78</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>23.08</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0610</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>001400</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>安信鑫安得利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>23.45</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0575</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001904</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>光大保德信欣鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>27.09</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0563</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>519197</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>万家颐达灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>20.73</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0522</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>004258</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>国寿安保稳嘉混合A</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>28.50</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0505</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>673020</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>西部利得成长精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>73.84</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0494</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>003749</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>创金合信鑫收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>30.12</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0461</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>006906</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>创金合信鑫收益灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>30.12</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0461</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>003125</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>中科沃土沃鑫成长精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>56.43</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0249</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>121001</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>国投瑞银融华债券</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>29.15</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0236</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>515520</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>大成MSCI中国A股质优价值100ETF</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>97.29</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>003750</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>创金合信鑫收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>30.12</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.0230</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>007505</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>华夏中证AH经济蓝筹股票指数A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.0215</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>004226</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>国寿安保稳诚混合 C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>1.76</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>23.08</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>007506</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>华夏中证AH经济蓝筹股票指数C</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>93.37</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>008884</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>博远博锐混合A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>74.93</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>009747</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>中科沃土沃鑫成长精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>56.43</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0107</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>005518</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>富国新趋势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>26.53</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0063</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>750005</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>39.29</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0062</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>009754</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>中欧美益稳健两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>28.84</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0055</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>007827</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>6.95</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0049</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>004748</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>天弘策略精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>30.41</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>008221</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>兴业聚鑫灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>21.15</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>006343</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>中金MSCI中国A股国际低波动指数A</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>95.06</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>004259</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>国寿安保稳嘉混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>28.50</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>010573</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>华润元大富时中国A50指数C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>008885</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>博远博锐混合C</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>74.93</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2.98</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>002035</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>安信平稳增长混合C</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>39.29</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>009501</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>62.26</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>006344</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>中金MSCI中国A股国际低波动指数C</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>95.06</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0002</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>009125</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>华泰保兴科荣混合C</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>26.90</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>1.79</t>
-        </is>
-      </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>